--- a/data/trans_bre/P16A08-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,15</t>
+          <t>-4,01; 1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,68</t>
+          <t>-1,82; 4,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,1</t>
+          <t>-1,7; 4,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,92</t>
+          <t>-0,92; 4,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,28; 50,17</t>
+          <t>-75,4; 55,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 146,29</t>
+          <t>-38,15; 163,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 177,16</t>
+          <t>-39,75; 203,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 246,99</t>
+          <t>-24,88; 242,03</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,31</t>
+          <t>3,54; 9,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,07</t>
+          <t>-1,29; 5,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,81</t>
+          <t>-1,02; 5,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,07</t>
+          <t>1,05; 7,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>159,11; —</t>
+          <t>195,67; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 189,07</t>
+          <t>-23,83; 194,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 224,06</t>
+          <t>-24,05; 209,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 342,59</t>
+          <t>13,99; 316,04</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,32</t>
+          <t>-2,88; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,54</t>
+          <t>-0,94; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 11,28</t>
+          <t>1,97; 11,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,26</t>
+          <t>-0,6; 6,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-84,46; 151,3</t>
+          <t>-92,0; 104,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 256,09</t>
+          <t>-28,17; 226,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,1; 625,93</t>
+          <t>40,93; 716,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 636,05</t>
+          <t>-15,75; 584,74</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,47</t>
+          <t>0,12; 3,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,23</t>
+          <t>3,0; 7,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,81</t>
+          <t>1,73; 5,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 2,66</t>
+          <t>-1,56; 2,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 199,17</t>
+          <t>0,85; 203,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,3; 410,33</t>
+          <t>92,09; 400,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,73; 313,57</t>
+          <t>54,52; 311,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 118,49</t>
+          <t>-43,06; 110,63</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,86</t>
+          <t>-0,32; 3,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,06</t>
+          <t>-1,14; 3,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,87</t>
+          <t>-0,32; 4,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 28,39</t>
+          <t>-0,83; 32,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 520,11</t>
+          <t>-22,78; 509,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 167,5</t>
+          <t>-31,27; 171,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 165,72</t>
+          <t>-10,12; 174,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 1077,41</t>
+          <t>-19,89; 1353,05</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,98</t>
+          <t>-0,74; 3,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,8</t>
+          <t>-5,11; 1,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,59</t>
+          <t>-3,49; 2,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 2,52</t>
+          <t>-8,09; 2,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 270,42</t>
+          <t>-22,65; 267,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,64; 49,71</t>
+          <t>-52,89; 50,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 90,94</t>
+          <t>-46,26; 71,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 175,32</t>
+          <t>-74,03; 183,5</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,37</t>
+          <t>0,7; 2,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,14</t>
+          <t>1,16; 3,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,35</t>
+          <t>1,25; 3,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,76</t>
+          <t>0,74; 9,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,87; 118,26</t>
+          <t>23,32; 112,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,83; 108,7</t>
+          <t>29,49; 105,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,49; 124,26</t>
+          <t>36,13; 121,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,62; 347,61</t>
+          <t>20,53; 325,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A08-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
